--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,31 +857,31 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,52 +896,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1577,26 +1577,26 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2606,17 +2606,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2627,31 +2627,31 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2666,37 +2666,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2726,52 +2726,52 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2816,42 +2816,42 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3116,50 +3116,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>45</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Please fly away or land with caution</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,31 +857,31 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,52 +896,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1577,26 +1577,26 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2606,17 +2606,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2627,31 +2627,31 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2666,37 +2666,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2726,52 +2726,52 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2816,42 +2816,42 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3116,20 +3116,50 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Please fly away or land with caution</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
